--- a/backend/trainers_data.xlsx
+++ b/backend/trainers_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/backend/trainers_data.xlsx
+++ b/backend/trainers_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>trainerSpecialization</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>__v</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -484,6 +489,7 @@
           <t>['Scrum', '.NET', 'Git', 'PHP']</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -509,6 +515,7 @@
           <t>['Machine Learning', 'Django', 'JavaScript', 'Azure']</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -534,6 +541,7 @@
           <t>['Artificial Intelligence', 'Java', 'HTML', 'Vue.js']</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -559,6 +567,7 @@
           <t>['GraphQL', 'React', 'Flask', 'Artificial Intelligence']</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -584,6 +593,7 @@
           <t>['Cybersecurity', 'Artificial Intelligence', 'DevOps', 'Network Security']</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -609,6 +619,7 @@
           <t>['Ruby', 'Statistical Analysis', 'Kubernetes', 'SQL']</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -634,6 +645,7 @@
           <t>['.NET', 'DevOps', 'Google Cloud Platform', 'Continuous Deployment']</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -659,6 +671,7 @@
           <t>['Continuous Deployment', '.NET', 'RESTful API', 'C#']</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -684,6 +697,7 @@
           <t>['Vue.js', 'PostgreSQL', 'HTML', 'Git']</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -709,6 +723,7 @@
           <t>['NoSQL', 'Google Cloud Platform', 'PHP', 'Agile Methodologies']</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -734,6 +749,7 @@
           <t>['Agile Methodologies', 'Behavior-Driven Development', 'Python', 'Containerization']</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -759,6 +775,7 @@
           <t>['Java', 'Network Security', 'Machine Learning', 'CSS']</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -784,6 +801,7 @@
           <t>['Continuous Deployment', 'Statistical Analysis', 'Artificial Intelligence', 'AWS']</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -809,6 +827,7 @@
           <t>['Kubernetes', 'NoSQL', 'Containerization', 'React']</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -834,6 +853,7 @@
           <t>['Data Visualization', 'Network Security', 'Python', 'Kotlin']</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -859,6 +879,7 @@
           <t>['Statistical Analysis', 'DevOps', '.NET', 'Python']</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -884,6 +905,7 @@
           <t>['Data Analysis', 'Data Visualization', 'GraphQL', 'Behavior-Driven Development']</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -909,6 +931,7 @@
           <t>['PHP', '.NET', 'CI/CD', 'C#']</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -934,6 +957,7 @@
           <t>['NoSQL', 'Network Security', 'Scrum', 'Artificial Intelligence']</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -959,6 +983,7 @@
           <t>['Google Cloud Platform', 'PHP', 'Penetration Testing', 'Azure']</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -984,6 +1009,7 @@
           <t>['SQL', 'Scrum', 'Containerization', 'C#']</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1009,6 +1035,7 @@
           <t>['Django', 'Microservices', 'Information Security', 'Python']</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1034,6 +1061,7 @@
           <t>['Objective-C', 'Java', 'Penetration Testing', 'Microservices']</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1059,6 +1087,7 @@
           <t>['Git', 'Node.js', 'Data Visualization', 'Artificial Intelligence']</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1084,6 +1113,7 @@
           <t>['CI/CD', 'Information Security', 'Vue.js', 'Continuous Deployment']</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1109,6 +1139,7 @@
           <t>['Azure', 'Objective-C', 'Git', 'Continuous Integration']</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1134,6 +1165,7 @@
           <t>['Flask', 'Data Visualization', 'Scrum', 'C#']</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1159,6 +1191,7 @@
           <t>['Node.js', 'CI/CD', 'Java', 'Flask']</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1184,6 +1217,7 @@
           <t>['Kubernetes', 'Test-Driven Development', 'NoSQL', 'GraphQL']</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1209,6 +1243,7 @@
           <t>['SQL', 'Docker', 'CI/CD', 'Network Security']</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1234,6 +1269,7 @@
           <t>['SQL', 'Kubernetes', 'Test-Driven Development', 'Machine Learning']</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1259,6 +1295,7 @@
           <t>['PHP', 'Data Science', 'Information Security', 'Machine Learning']</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1284,6 +1321,7 @@
           <t>['Behavior-Driven Development', 'Git', 'C#', 'Statistical Analysis']</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1309,6 +1347,7 @@
           <t>['Swift', 'PHP', 'Flask', 'Data Science']</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1334,6 +1373,7 @@
           <t>['Data Visualization', 'SQL', 'Django', 'Behavior-Driven Development']</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1359,6 +1399,7 @@
           <t>['Java', 'RESTful API', 'Data Analysis', 'Cryptography']</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1384,6 +1425,7 @@
           <t>['Node.js', 'Cybersecurity', 'Ruby', 'GraphQL']</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1409,6 +1451,7 @@
           <t>['CSS', 'Google Cloud Platform', 'Kubernetes', 'Agile Methodologies']</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1434,6 +1477,7 @@
           <t>['Continuous Deployment', 'Cryptography', 'GraphQL', 'Ruby']</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1459,6 +1503,7 @@
           <t>['MongoDB', 'Penetration Testing', 'CI/CD', 'Scrum']</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1484,6 +1529,7 @@
           <t>['MySQL', 'Kubernetes', 'Agile Methodologies', 'Continuous Deployment']</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1509,6 +1555,7 @@
           <t>['Python', 'Git', 'NoSQL', 'AWS']</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1534,6 +1581,7 @@
           <t>['Machine Learning', 'JavaScript', 'Artificial Intelligence', 'DevOps']</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1559,6 +1607,7 @@
           <t>['Agile Methodologies', 'Data Visualization', 'AWS', 'Penetration Testing']</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1584,6 +1633,7 @@
           <t>['Objective-C', 'Statistical Analysis', 'Machine Learning', 'Git']</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1609,6 +1659,7 @@
           <t>['Cryptography', 'HTML', 'AWS', 'Node.js']</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1634,6 +1685,7 @@
           <t>['SQL', 'Angular', 'MySQL', 'HTML']</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1659,6 +1711,7 @@
           <t>['Ruby', 'Data Analysis', 'GraphQL', 'Azure']</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1683,6 +1736,203 @@
         <is>
           <t>['MySQL', 'Node.js', 'RESTful API', 'PHP']</t>
         </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Emp_100</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Hari</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Software Developer</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>4</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Full Stack</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Emp_211</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>dfrfee</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>swswsws</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>wswswsw</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Emp_1000</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>dfrfee</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>swswsws</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>wswswsw</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Emp_1000</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>dfrfee</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>swswsws</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>wswswsw</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Emp_1001</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>dfrfee</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>swswsws</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>wswswsw</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Emp_223</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>dfrfee</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>swswsws</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>wswswsw</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Emp_225</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>dfrfee</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>swswsws</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>wswswsw</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/backend/trainers_data.xlsx
+++ b/backend/trainers_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/backend/trainers_data.xlsx
+++ b/backend/trainers_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1935,6 +1935,34 @@
         <v>0</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Emp_202</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Mohan Raj</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>4</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>DBT, Full Stack</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
